--- a/test case.xlsx
+++ b/test case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="104">
   <si>
     <t>Step</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>enter supervisor = 0</t>
-  </si>
-  <si>
-    <t>entersupervisor = 1</t>
   </si>
   <si>
     <t>enter supervisor = 2</t>
@@ -324,6 +321,27 @@
 Pre-conditions: User has valid username and password.
 Dependencies: internet connection and database event, database users, number_event text
 </t>
+  </si>
+  <si>
+    <t>enter supervisor = 1</t>
+  </si>
+  <si>
+    <t>enter subject</t>
+  </si>
+  <si>
+    <t>enter discription</t>
+  </si>
+  <si>
+    <t>enter notes</t>
+  </si>
+  <si>
+    <t>discription = discription</t>
+  </si>
+  <si>
+    <t>subject = subject</t>
+  </si>
+  <si>
+    <t>notes = notes</t>
   </si>
 </sst>
 </file>
@@ -451,17 +469,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -745,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -763,78 +781,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="15.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
@@ -875,7 +893,7 @@
       <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="4"/>
@@ -896,7 +914,7 @@
       <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="4"/>
@@ -917,7 +935,7 @@
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="4"/>
@@ -938,7 +956,7 @@
       <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="4"/>
@@ -959,7 +977,7 @@
       <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="4"/>
@@ -980,7 +998,7 @@
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="4"/>
@@ -1001,7 +1019,7 @@
       <c r="E16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="4"/>
@@ -1022,7 +1040,7 @@
       <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="4"/>
@@ -1043,7 +1061,7 @@
       <c r="E18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="4"/>
@@ -1064,7 +1082,7 @@
       <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="4"/>
@@ -1085,7 +1103,7 @@
       <c r="E20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="4"/>
@@ -1101,16 +1119,16 @@
         <v>36</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1129,7 +1147,7 @@
       <c r="E22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="4"/>
@@ -1150,7 +1168,7 @@
       <c r="E23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4"/>
@@ -1171,11 +1189,11 @@
       <c r="E24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1189,12 +1207,12 @@
         <v>43</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="4"/>
@@ -1207,15 +1225,15 @@
         <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="4"/>
@@ -1228,15 +1246,15 @@
         <v>33</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="4"/>
@@ -1249,15 +1267,15 @@
         <v>33</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="4"/>
@@ -1270,20 +1288,20 @@
         <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -1291,38 +1309,36 @@
         <v>33</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="4">
         <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="4"/>
@@ -1332,42 +1348,44 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="4">
         <v>24</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4">
@@ -1377,15 +1395,15 @@
         <v>25</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="4"/>
@@ -1398,15 +1416,15 @@
         <v>25</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="4"/>
@@ -1419,20 +1437,20 @@
         <v>25</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -1440,15 +1458,15 @@
         <v>25</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="4"/>
@@ -1458,18 +1476,18 @@
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="4"/>
@@ -1479,123 +1497,123 @@
         <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="4">
         <v>31</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4">
         <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="4">
         <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4">
         <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4">
         <v>35</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="4"/>
@@ -1605,18 +1623,18 @@
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="4"/>
@@ -1626,146 +1644,144 @@
         <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="4">
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="4">
         <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:7" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="4">
         <v>40</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="4">
         <v>41</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="4">
         <v>42</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>83</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4">
         <v>43</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="4"/>
@@ -1775,18 +1791,18 @@
         <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="4"/>
@@ -1796,22 +1812,22 @@
         <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D54" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1819,18 +1835,18 @@
         <v>46</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="4"/>
@@ -1840,18 +1856,18 @@
         <v>47</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="4"/>
@@ -1861,22 +1877,22 @@
         <v>48</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1884,18 +1900,18 @@
         <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="4"/>
@@ -1905,21 +1921,86 @@
         <v>50</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="4">
+        <v>51</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="4">
+        <v>52</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E61" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="4">
+        <v>53</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="4"/>
+      <c r="F62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
